--- a/Tables/Fig27_Table_LC_Change.xlsx
+++ b/Tables/Fig27_Table_LC_Change.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbouf\Documents\UVM\Maryland_Technical_Forest\MD_Forest\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D925F41E-678A-4BE2-8938-C0BD9E042388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="county" r:id="rId3" sheetId="1"/>
-    <sheet name="region" r:id="rId4" sheetId="2"/>
+    <sheet name="county" sheetId="1" r:id="rId1"/>
+    <sheet name="region" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -162,11 +170,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -178,10 +193,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,4662 +204,4997 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2682.878537305</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2658.2817056050003</v>
       </c>
-      <c r="E2" t="n">
-        <v>-24.59683169999971</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>-24.596831699999711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>222743.28450671502</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>221045.26988135502</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1698.014625359996</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>266.05350561</v>
       </c>
-      <c r="D5" t="n">
-        <v>256.485352905</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-9.568152704999989</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>256.48535290500001</v>
+      </c>
+      <c r="E5">
+        <v>-9.5681527049999886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>38912.279672460005</v>
       </c>
-      <c r="D6" t="n">
-        <v>39621.50561716</v>
-      </c>
-      <c r="E6" t="n">
-        <v>709.225944699996</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>39621.505617160001</v>
+      </c>
+      <c r="E6">
+        <v>709.22594469999603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1592.892945995</v>
       </c>
-      <c r="D7" t="n">
-        <v>1460.324078755</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>1460.3240787550001</v>
+      </c>
+      <c r="E7">
         <v>-132.56886723999992</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1766.5847802300002</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1794.28821599</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>27.70343575999982</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3065.1326749550003</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3095.6894321500004</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>30.556757195000046</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2828.285991925</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2826.4981872500002</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-1.7878046749997338</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>2688.231820025</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>2688.2318200250002</v>
+      </c>
+      <c r="D11">
         <v>2707.2734842200002</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>19.041664195000067</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1465.94695303</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1463.7988692650001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-2.1480837649999103</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>158733.02615559002</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>148840.12509433</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-9892.901061260025</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>799.178342325</v>
-      </c>
-      <c r="D14" t="n">
-        <v>842.31916875</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="C14">
+        <v>799.17834232500002</v>
+      </c>
+      <c r="D14">
+        <v>842.31916875000002</v>
+      </c>
+      <c r="E14">
         <v>43.140826425</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>63182.95501191</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>63182.955011910002</v>
+      </c>
+      <c r="D15">
         <v>63196.799563745</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>13.844551834998128</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1389.625361415</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1731.507978375</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>341.88261695999995</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>9709.31193046</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>9709.3119304600004</v>
+      </c>
+      <c r="D17">
         <v>10082.70092913</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>373.38899866999964</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="n">
-        <v>15879.04044308</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17050.169632975</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18">
+        <v>15879.040443080001</v>
+      </c>
+      <c r="D18">
+        <v>17050.169632975001</v>
+      </c>
+      <c r="E18">
         <v>1171.1291898950003</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>11943.61606627</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>11945.967764555</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2.3516982849996566</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6450.574464845</v>
       </c>
-      <c r="D20" t="n">
-        <v>6447.502949695</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>6447.5029496950001</v>
+      </c>
+      <c r="E20">
         <v>-3.0715151499998683</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2211.4785527500003</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2210.7567590450003</v>
       </c>
-      <c r="E21" t="n">
-        <v>-0.7217937049999819</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21">
+        <v>-0.72179370499998186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>170234.00204694</v>
       </c>
-      <c r="D22" t="n">
-        <v>164925.905688555</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-5308.096358384995</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>164925.90568855501</v>
+      </c>
+      <c r="E22">
+        <v>-5308.0963583849953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="n">
-        <v>128.636685375</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>128.63668537500001</v>
+      </c>
+      <c r="D23">
         <v>190.403545385</v>
       </c>
-      <c r="E23" t="n">
-        <v>61.76686000999999</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23">
+        <v>61.766860009999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>155467.70358883002</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>154878.68335401002</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-589.0202348199964</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2225.524742265</v>
       </c>
-      <c r="D25" t="n">
-        <v>2569.370855555</v>
-      </c>
-      <c r="E25" t="n">
-        <v>343.8461132900002</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>2569.3708555550002</v>
+      </c>
+      <c r="E25">
+        <v>343.84611329000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>13664.005308065001</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>14039.704738485001</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>375.69943041999977</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>21235.134723770003</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22135.628092935</v>
       </c>
-      <c r="E27" t="n">
-        <v>900.4933691649967</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27">
+        <v>900.49336916499669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>16410.039682585</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>16383.424003035001</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.615679549999186</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="n">
-        <v>1583.1078351</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>1583.1078351000001</v>
+      </c>
+      <c r="D29">
         <v>1585.009802285</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1.9019671849998758</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2329.74399417</v>
       </c>
-      <c r="D30" t="n">
-        <v>2327.258364975</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>2327.2583649749999</v>
+      </c>
+      <c r="E30">
         <v>-2.4856291950000013</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="n">
-        <v>91583.52982264</v>
-      </c>
-      <c r="D31" t="n">
-        <v>88616.352040735</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-2967.177781905004</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>91583.529822640005</v>
+      </c>
+      <c r="D31">
+        <v>88616.352040735001</v>
+      </c>
+      <c r="E31">
+        <v>-2967.1777819050039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="n">
-        <v>461.05196847</v>
-      </c>
-      <c r="D32" t="n">
-        <v>356.994323235</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="C32">
+        <v>461.05196847000002</v>
+      </c>
+      <c r="D32">
+        <v>356.99432323500002</v>
+      </c>
+      <c r="E32">
         <v>-104.057645235</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="n">
-        <v>32722.154866035</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32991.26184813</v>
-      </c>
-      <c r="E33" t="n">
-        <v>269.1069820949997</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>32722.154866035002</v>
+      </c>
+      <c r="D33">
+        <v>32991.261848130001</v>
+      </c>
+      <c r="E33">
+        <v>269.10698209499969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="n">
-        <v>281.85241089</v>
-      </c>
-      <c r="D34" t="n">
-        <v>297.408906165</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="C34">
+        <v>281.85241088999999</v>
+      </c>
+      <c r="D34">
+        <v>297.40890616500002</v>
+      </c>
+      <c r="E34">
         <v>15.556495275000032</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1827.068918185</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2037.7022086050001</v>
       </c>
-      <c r="E35" t="n">
-        <v>210.6332904200001</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35">
+        <v>210.63329042000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="n">
-        <v>4330.647820385</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4680.138800295001</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="C36">
+        <v>4330.6478203850002</v>
+      </c>
+      <c r="D36">
+        <v>4680.1388002950007</v>
+      </c>
+      <c r="E36">
         <v>349.49097991000053</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2712.4654073750003</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2721.753590115</v>
       </c>
-      <c r="E37" t="n">
-        <v>9.288182739999684</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37">
+        <v>9.2881827399996837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1665.5914841000001</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1777.7445362400001</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>112.15305214</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1850.2925874</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1847.2697519350002</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-3.0228354649998437</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" t="n">
-        <v>74825.65303391</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>74825.653033909999</v>
+      </c>
+      <c r="D40">
         <v>74368.82310147</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-456.82993243999954</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" t="n">
-        <v>784.1133388950001</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>784.11333889500008</v>
+      </c>
+      <c r="D41">
         <v>493.51019864</v>
       </c>
-      <c r="E41" t="n">
-        <v>-290.6031402550001</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41">
+        <v>-290.60314025500008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" t="n">
-        <v>119578.220585885</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>119578.22058588501</v>
+      </c>
+      <c r="D42">
         <v>119171.66169464501</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-406.55889123999805</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>473.88437822500003</v>
       </c>
-      <c r="D43" t="n">
-        <v>652.345586065</v>
-      </c>
-      <c r="E43" t="n">
-        <v>178.46120784</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43">
+        <v>652.34558606500002</v>
+      </c>
+      <c r="E43">
+        <v>178.46120783999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" t="n">
-        <v>1545.03735617</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1667.148492705</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="C44">
+        <v>1545.0373561700001</v>
+      </c>
+      <c r="D44">
+        <v>1667.1484927050001</v>
+      </c>
+      <c r="E44">
         <v>122.11113653500001</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2369.6927182050003</v>
       </c>
-      <c r="D45" t="n">
-        <v>2665.31703206</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>2665.3170320600002</v>
+      </c>
+      <c r="E45">
         <v>295.62431385499985</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2166.131572885</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2182.48226363</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>16.350690745000065</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>2790.4628651000003</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>2794.441008495</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>3.9781433949997336</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C49" t="n">
-        <v>96483.61233554501</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>96483.612335545011</v>
+      </c>
+      <c r="D49">
         <v>95710.15737661501</v>
       </c>
-      <c r="E49" t="n">
-        <v>-773.4549589300004</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49">
+        <v>-773.45495893000043</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
-      <c r="C50" t="n">
-        <v>193.79654414</v>
-      </c>
-      <c r="D50" t="n">
-        <v>303.888987685</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="C50">
+        <v>193.79654414000001</v>
+      </c>
+      <c r="D50">
+        <v>303.88898768500002</v>
+      </c>
+      <c r="E50">
         <v>110.09244354500001</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>174741.187115635</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>173168.440887395</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-1572.7462282399938</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>478.18178128000005</v>
       </c>
-      <c r="D52" t="n">
-        <v>730.68997921</v>
-      </c>
-      <c r="E52" t="n">
-        <v>252.50819793</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="D52">
+        <v>730.68997921000005</v>
+      </c>
+      <c r="E52">
+        <v>252.50819792999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4080.1663776650003</v>
       </c>
-      <c r="D53" t="n">
-        <v>4292.23954892</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53">
+        <v>4292.2395489199998</v>
+      </c>
+      <c r="E53">
         <v>212.07317125499958</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>6370.4365836100005</v>
       </c>
-      <c r="D54" t="n">
-        <v>6672.841705770001</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54">
+        <v>6672.8417057700008</v>
+      </c>
+      <c r="E54">
         <v>302.40512216000025</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
       </c>
-      <c r="C55" t="n">
-        <v>4584.25440004</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4608.35207964</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="C55">
+        <v>4584.2544000400003</v>
+      </c>
+      <c r="D55">
+        <v>4608.3520796399998</v>
+      </c>
+      <c r="E55">
         <v>24.097679599999537</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>4691.7554534500005</v>
       </c>
-      <c r="D56" t="n">
-        <v>4700.910446595</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.154993144999935</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="D56">
+        <v>4700.9104465950004</v>
+      </c>
+      <c r="E56">
+        <v>9.1549931449999349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C57" t="n">
-        <v>1727.87924145</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1724.73062954</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="C57">
+        <v>1727.8792414500001</v>
+      </c>
+      <c r="D57">
+        <v>1724.7306295400001</v>
+      </c>
+      <c r="E57">
         <v>-3.1486119099999996</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="C58" t="n">
-        <v>98039.5413388</v>
-      </c>
-      <c r="D58" t="n">
-        <v>96808.303857655</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="C58">
+        <v>98039.541338800002</v>
+      </c>
+      <c r="D58">
+        <v>96808.303857655003</v>
+      </c>
+      <c r="E58">
         <v>-1231.237481144999</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>250.20344959500002</v>
       </c>
-      <c r="D59" t="n">
-        <v>352.988256975</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59">
+        <v>352.98825697500001</v>
+      </c>
+      <c r="E59">
         <v>102.78480737999999</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>107761.62513829001</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>106854.21406465</v>
       </c>
-      <c r="E60" t="n">
-        <v>-907.4110736400035</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60">
+        <v>-907.41107364000345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1371.850604555</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1703.6226733350002</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>331.77206878000015</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
       </c>
-      <c r="C62" t="n">
-        <v>2656.27644853</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62">
+        <v>2656.2764485299999</v>
+      </c>
+      <c r="D62">
         <v>2891.2965314000003</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>235.02008287000035</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="C63" t="n">
-        <v>5467.629076120001</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5855.16582446</v>
-      </c>
-      <c r="E63" t="n">
-        <v>387.5367483399996</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>5467.6290761200007</v>
+      </c>
+      <c r="D63">
+        <v>5855.1658244600003</v>
+      </c>
+      <c r="E63">
+        <v>387.53674833999958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C64" t="n">
-        <v>3900.59245601</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3901.096303105</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5038470949998555</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>3900.5924560100002</v>
+      </c>
+      <c r="D64">
+        <v>3901.0963031050001</v>
+      </c>
+      <c r="E64">
+        <v>0.50384709499985547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>2559.5269336700003</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2613.62711395</v>
       </c>
-      <c r="E65" t="n">
-        <v>54.10018027999968</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65">
+        <v>54.100180279999677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="n">
-        <v>4861.738982950001</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4823.208888720001</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-38.53009423000003</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>4861.7389829500007</v>
+      </c>
+      <c r="D66">
+        <v>4823.2088887200007</v>
+      </c>
+      <c r="E66">
+        <v>-38.530094230000032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>198796.048855445</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>196787.315507305</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-2008.7333481399983</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1090.3191830600001</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1138.503422535</v>
       </c>
-      <c r="E68" t="n">
-        <v>48.18423947499991</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68">
+        <v>48.184239474999913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
       </c>
-      <c r="C69" t="n">
-        <v>72635.6103457</v>
-      </c>
-      <c r="D69" t="n">
-        <v>72494.707368125</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="C69">
+        <v>72635.610345699999</v>
+      </c>
+      <c r="D69">
+        <v>72494.707368125004</v>
+      </c>
+      <c r="E69">
         <v>-140.90297757499502</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1397.1731836400002</v>
       </c>
-      <c r="D70" t="n">
-        <v>1479.57133431</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70">
+        <v>1479.5713343100001</v>
+      </c>
+      <c r="E70">
         <v>82.39815066999995</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
       </c>
-      <c r="C71" t="n">
-        <v>3159.80972018</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71">
+        <v>3159.8097201800001</v>
+      </c>
+      <c r="D71">
         <v>3439.2044247400004</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>279.39470456000026</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="C72" t="n">
-        <v>5904.90163623</v>
-      </c>
-      <c r="D72" t="n">
-        <v>6294.22594214</v>
-      </c>
-      <c r="E72" t="n">
-        <v>389.3243059100005</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>5904.9016362299999</v>
+      </c>
+      <c r="D72">
+        <v>6294.2259421400004</v>
+      </c>
+      <c r="E72">
+        <v>389.32430591000048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>4163.221333425</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>4265.310787335</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>102.08945390999997</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>28023.36952244</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>28052.315896350003</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>28.946373910002876</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
-      <c r="C75" t="n">
-        <v>78982.28679514001</v>
-      </c>
-      <c r="D75" t="n">
-        <v>78949.222910615</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="C75">
+        <v>78982.286795140011</v>
+      </c>
+      <c r="D75">
+        <v>78949.222910615004</v>
+      </c>
+      <c r="E75">
         <v>-33.06388452500687</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>137001.37198849002</v>
       </c>
-      <c r="D76" t="n">
-        <v>136409.56440927</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-591.8075792200107</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76">
+        <v>136409.56440927001</v>
+      </c>
+      <c r="E76">
+        <v>-591.80757922001067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
       </c>
-      <c r="C77" t="n">
-        <v>1205.824708735</v>
-      </c>
-      <c r="D77" t="n">
-        <v>904.6748799750001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-301.14982876</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>1205.8247087350001</v>
+      </c>
+      <c r="D77">
+        <v>904.67487997500007</v>
+      </c>
+      <c r="E77">
+        <v>-301.14982875999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>113393.884214085</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>113271.28603359501</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-122.59818048999296</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>34</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>504.04823847</v>
       </c>
-      <c r="D79" t="n">
-        <v>655.980994825</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="D79">
+        <v>655.98099482500004</v>
+      </c>
+      <c r="E79">
         <v>151.93275635500004</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
       </c>
-      <c r="C80" t="n">
-        <v>1387.19607216</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80">
+        <v>1387.1960721600001</v>
+      </c>
+      <c r="D80">
         <v>1438.84002874</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>51.643956579999895</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>36</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>2821.2254607600003</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>2987.548871</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>166.3234102399997</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>2412.7878302050003</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>2409.0894096700004</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-3.6984205349999684</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
-      <c r="C83" t="n">
-        <v>3915.472872005</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83">
+        <v>3915.4728720050002</v>
+      </c>
+      <c r="D83">
         <v>3933.1846170900003</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>17.711745085000075</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
-      <c r="C84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>181640.742222595</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>178055.32305120002</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-3585.419171394984</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>32</v>
       </c>
-      <c r="C86" t="n">
-        <v>635.561226045</v>
-      </c>
-      <c r="D86" t="n">
-        <v>600.5123470550001</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="C86">
+        <v>635.56122604500001</v>
+      </c>
+      <c r="D86">
+        <v>600.51234705500008</v>
+      </c>
+      <c r="E86">
         <v>-35.048878989999935</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>33</v>
       </c>
-      <c r="C87" t="n">
-        <v>213266.882382425</v>
-      </c>
-      <c r="D87" t="n">
-        <v>211706.1956195</v>
-      </c>
-      <c r="E87" t="n">
+      <c r="C87">
+        <v>213266.88238242501</v>
+      </c>
+      <c r="D87">
+        <v>211706.19561950001</v>
+      </c>
+      <c r="E87">
         <v>-1560.6867629250046</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>34</v>
       </c>
-      <c r="C88" t="n">
-        <v>1819.32192933</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2320.053771595</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="C88">
+        <v>1819.3219293300001</v>
+      </c>
+      <c r="D88">
+        <v>2320.0537715949999</v>
+      </c>
+      <c r="E88">
         <v>500.73184226499984</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>5618.094028775</v>
       </c>
-      <c r="D89" t="n">
-        <v>5931.00877369</v>
-      </c>
-      <c r="E89" t="n">
-        <v>312.9147449150005</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89">
+        <v>5931.0087736900005</v>
+      </c>
+      <c r="E89">
+        <v>312.91474491500048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
       </c>
-      <c r="C90" t="n">
-        <v>12039.417933455</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90">
+        <v>12039.417933455001</v>
+      </c>
+      <c r="D90">
         <v>12605.939010920001</v>
       </c>
-      <c r="E90" t="n">
-        <v>566.5210774650004</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="E90">
+        <v>566.52107746500042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
       </c>
-      <c r="C91" t="n">
-        <v>8209.310201855</v>
-      </c>
-      <c r="D91" t="n">
-        <v>8340.76684949</v>
-      </c>
-      <c r="E91" t="n">
-        <v>131.456647635001</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91">
+        <v>8209.3102018549998</v>
+      </c>
+      <c r="D91">
+        <v>8340.7668494900008</v>
+      </c>
+      <c r="E91">
+        <v>131.45664763500099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
       </c>
-      <c r="C92" t="n">
-        <v>6600.230148625001</v>
-      </c>
-      <c r="D92" t="n">
-        <v>6609.73405403</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.503905404999387</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="C92">
+        <v>6600.2301486250008</v>
+      </c>
+      <c r="D92">
+        <v>6609.7340540300002</v>
+      </c>
+      <c r="E92">
+        <v>9.5039054049993865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.26489656</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.26489656</v>
       </c>
-      <c r="E93" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="n">
-        <v>307046.31054046</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94">
+        <v>307046.31054045999</v>
+      </c>
+      <c r="D94">
         <v>303672.25683160004</v>
       </c>
-      <c r="E94" t="n">
-        <v>-3374.053708859952</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="E94">
+        <v>-3374.0537088599522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>3561.8735243650003</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>3310.13011641</v>
       </c>
-      <c r="E95" t="n">
-        <v>-251.7434079550003</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="E95">
+        <v>-251.74340795500029</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
       </c>
-      <c r="C96" t="n">
-        <v>94964.56474196</v>
-      </c>
-      <c r="D96" t="n">
-        <v>97011.87414586001</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="C96">
+        <v>94964.564741959999</v>
+      </c>
+      <c r="D96">
+        <v>97011.874145860013</v>
+      </c>
+      <c r="E96">
         <v>2047.3094039000134</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
       <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1747.6953327150002</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>1650.2981556500001</v>
       </c>
-      <c r="E97" t="n">
-        <v>-97.39717706500005</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="E97">
+        <v>-97.397177065000051</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1288.7380733300001</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>1318.37683545</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>29.63876211999991</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2674.0321783050003</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>2742.42219363</v>
       </c>
-      <c r="E99" t="n">
-        <v>68.3900153249997</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="E99">
+        <v>68.390015324999695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>3084.58057977</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>3085.3196708250002</v>
       </c>
-      <c r="E100" t="n">
-        <v>0.7390910550002445</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="E100">
+        <v>0.73909105500024452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
       <c r="B101" t="s">
         <v>29</v>
       </c>
-      <c r="C101" t="n">
-        <v>3888.07757618</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101">
+        <v>3888.0775761800001</v>
+      </c>
+      <c r="D101">
         <v>3883.1147193600004</v>
       </c>
-      <c r="E101" t="n">
-        <v>-4.962856819999615</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="E101">
+        <v>-4.9628568199996153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
       </c>
-      <c r="C102" t="n">
-        <v>464.495870855</v>
-      </c>
-      <c r="D102" t="n">
-        <v>463.994247705</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-0.5016231500000004</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="C102">
+        <v>464.49587085500002</v>
+      </c>
+      <c r="D102">
+        <v>463.99424770500002</v>
+      </c>
+      <c r="E102">
+        <v>-0.50162315000000035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>111325.070250455</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>109364.68521951001</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>-1960.3850309449917</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
       <c r="B104" t="s">
         <v>32</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>335.203121705</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>379.82064761000004</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>44.617525905000036</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>16</v>
       </c>
       <c r="B105" t="s">
         <v>33</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>109884.34357504001</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>108842.67294175</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>-1041.6706332900067</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
       <c r="B106" t="s">
         <v>34</v>
       </c>
-      <c r="C106" t="n">
-        <v>968.4675067750001</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="C106">
+        <v>968.46750677500006</v>
+      </c>
+      <c r="D106">
         <v>1079.841683955</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>111.37417717999995</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
       </c>
-      <c r="C107" t="n">
-        <v>5560.84004738</v>
-      </c>
-      <c r="D107" t="n">
-        <v>5862.198926970001</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="C107">
+        <v>5560.8400473800002</v>
+      </c>
+      <c r="D107">
+        <v>5862.1989269700007</v>
+      </c>
+      <c r="E107">
         <v>301.35887959000047</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>16</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
       </c>
-      <c r="C108" t="n">
-        <v>7420.665945680001</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8121.551602420001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>700.8856567399998</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="C108">
+        <v>7420.6659456800007</v>
+      </c>
+      <c r="D108">
+        <v>8121.5516024200006</v>
+      </c>
+      <c r="E108">
+        <v>700.88565673999983</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
       </c>
-      <c r="C109" t="n">
-        <v>5849.370718</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5875.39482818</v>
-      </c>
-      <c r="E109" t="n">
+      <c r="C109">
+        <v>5849.3707180000001</v>
+      </c>
+      <c r="D109">
+        <v>5875.3948281800003</v>
+      </c>
+      <c r="E109">
         <v>26.024110180000207</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
       <c r="B110" t="s">
         <v>29</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1699.486135635</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>1696.4138791700002</v>
       </c>
-      <c r="E110" t="n">
-        <v>-3.072256464999782</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="E110">
+        <v>-3.0722564649997821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
       </c>
-      <c r="C111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>17</v>
       </c>
       <c r="B112" t="s">
         <v>31</v>
       </c>
-      <c r="C112" t="n">
-        <v>80373.545026395</v>
-      </c>
-      <c r="D112" t="n">
-        <v>76643.589939715</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-3729.955086679998</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="C112">
+        <v>80373.545026395004</v>
+      </c>
+      <c r="D112">
+        <v>76643.589939715006</v>
+      </c>
+      <c r="E112">
+        <v>-3729.9550866799982</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>17</v>
       </c>
       <c r="B113" t="s">
         <v>32</v>
       </c>
-      <c r="C113" t="n">
-        <v>97.708035155</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C113">
+        <v>97.708035155000005</v>
+      </c>
+      <c r="D113">
         <v>157.96582493</v>
       </c>
-      <c r="E113" t="n">
-        <v>60.25778977499999</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="E113">
+        <v>60.257789774999992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>17</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>58930.480093800004</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>58692.31387007</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>-238.16622373000428</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115" t="s">
         <v>34</v>
       </c>
-      <c r="C115" t="n">
-        <v>835.199332385</v>
-      </c>
-      <c r="D115" t="n">
-        <v>675.392080995</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C115">
+        <v>835.19933238500005</v>
+      </c>
+      <c r="D115">
+        <v>675.39208099500001</v>
+      </c>
+      <c r="E115">
         <v>-159.80725139000003</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>17</v>
       </c>
       <c r="B116" t="s">
         <v>35</v>
       </c>
-      <c r="C116" t="n">
-        <v>5648.35277734</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5992.805039195</v>
-      </c>
-      <c r="E116" t="n">
+      <c r="C116">
+        <v>5648.3527773400001</v>
+      </c>
+      <c r="D116">
+        <v>5992.8050391950001</v>
+      </c>
+      <c r="E116">
         <v>344.45226185499996</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
       </c>
-      <c r="C117" t="n">
-        <v>8430.506242605</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9156.89140561</v>
-      </c>
-      <c r="E117" t="n">
-        <v>726.3851630049994</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="C117">
+        <v>8430.5062426050008</v>
+      </c>
+      <c r="D117">
+        <v>9156.8914056100002</v>
+      </c>
+      <c r="E117">
+        <v>726.38516300499941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
       </c>
-      <c r="C118" t="n">
-        <v>6156.82963162</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6225.472188255</v>
-      </c>
-      <c r="E118" t="n">
-        <v>68.64255663499989</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="C118">
+        <v>6156.8296316200003</v>
+      </c>
+      <c r="D118">
+        <v>6225.4721882550002</v>
+      </c>
+      <c r="E118">
+        <v>68.642556634999892</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
       <c r="B119" t="s">
         <v>29</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>3686.6380743900004</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>3824.317814345</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>137.6797399549996</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>3005.8452665150003</v>
       </c>
-      <c r="D120" t="n">
-        <v>3005.7110885</v>
-      </c>
-      <c r="E120" t="n">
+      <c r="D120">
+        <v>3005.7110885000002</v>
+      </c>
+      <c r="E120">
         <v>-0.13417801500008864</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
       <c r="B121" t="s">
         <v>31</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>52365.575087555</v>
       </c>
-      <c r="D121" t="n">
-        <v>52004.300164405</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="D121">
+        <v>52004.300164405002</v>
+      </c>
+      <c r="E121">
         <v>-361.27492314999836</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
       <c r="B122" t="s">
         <v>32</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>40.581807045000005</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>40.485683200000004</v>
       </c>
-      <c r="E122" t="n">
-        <v>-0.09612384500000104</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="E122">
+        <v>-9.612384500000104E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>18</v>
       </c>
       <c r="B123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>116022.15229928501</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>115639.91348214501</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>-382.23881713999435</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>18</v>
       </c>
       <c r="B124" t="s">
         <v>34</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>280.97494103500003</v>
       </c>
-      <c r="D124" t="n">
-        <v>332.97497592</v>
-      </c>
-      <c r="E124" t="n">
-        <v>52.00003488499999</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="D124">
+        <v>332.97497592000002</v>
+      </c>
+      <c r="E124">
+        <v>52.000034884999991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>18</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
       </c>
-      <c r="C125" t="n">
-        <v>802.992655105</v>
-      </c>
-      <c r="D125" t="n">
-        <v>849.324348395</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="C125">
+        <v>802.99265510500004</v>
+      </c>
+      <c r="D125">
+        <v>849.32434839500002</v>
+      </c>
+      <c r="E125">
         <v>46.331693289999976</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>18</v>
       </c>
       <c r="B126" t="s">
         <v>36</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2019.34354263</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>2113.359829085</v>
       </c>
-      <c r="E126" t="n">
-        <v>94.016286455</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="E126">
+        <v>94.016286454999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
       </c>
-      <c r="C127" t="n">
-        <v>1580.48555684</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127">
+        <v>1580.4855568400001</v>
+      </c>
+      <c r="D127">
         <v>1581.1010953950001</v>
       </c>
-      <c r="E127" t="n">
-        <v>0.6155385550000574</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="E127">
+        <v>0.61553855500005739</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>19</v>
       </c>
       <c r="B128" t="s">
         <v>29</v>
       </c>
-      <c r="C128" t="n">
-        <v>7250.67302619</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128">
+        <v>7250.6730261900002</v>
+      </c>
+      <c r="D128">
         <v>7229.60435968</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>-21.068666510000185</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
       </c>
-      <c r="C129" t="n">
-        <v>17.68530485</v>
-      </c>
-      <c r="D129" t="n">
+      <c r="C129">
+        <v>17.685304850000001</v>
+      </c>
+      <c r="D129">
         <v>17.433010645</v>
       </c>
-      <c r="E129" t="n">
-        <v>-0.2522942050000019</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="E129">
+        <v>-0.25229420500000188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>19</v>
       </c>
       <c r="B130" t="s">
         <v>31</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>153068.76179309</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>140880.696858465</v>
       </c>
-      <c r="E130" t="n">
-        <v>-12188.064934625</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="E130">
+        <v>-12188.064934624999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>19</v>
       </c>
       <c r="B131" t="s">
         <v>32</v>
       </c>
-      <c r="C131" t="n">
-        <v>494.90535347</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C131">
+        <v>494.90535347000002</v>
+      </c>
+      <c r="D131">
         <v>497.54492908000003</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>2.6395756100000085</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>19</v>
       </c>
       <c r="B132" t="s">
         <v>33</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>118971.66207369001</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>123524.817568165</v>
       </c>
-      <c r="E132" t="n">
-        <v>4553.155494474995</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="E132">
+        <v>4553.1554944749951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>19</v>
       </c>
       <c r="B133" t="s">
         <v>34</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1404.15785357</v>
       </c>
-      <c r="D133" t="n">
-        <v>1189.90348648</v>
-      </c>
-      <c r="E133" t="n">
+      <c r="D133">
+        <v>1189.9034864800001</v>
+      </c>
+      <c r="E133">
         <v>-214.25436708999996</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>19</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="n">
-        <v>13725.804785935</v>
-      </c>
-      <c r="D134" t="n">
-        <v>14090.25031334</v>
-      </c>
-      <c r="E134" t="n">
+      <c r="C134">
+        <v>13725.804785935001</v>
+      </c>
+      <c r="D134">
+        <v>14090.250313340001</v>
+      </c>
+      <c r="E134">
         <v>364.44552740499967</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
       <c r="B135" t="s">
         <v>36</v>
       </c>
-      <c r="C135" t="n">
-        <v>15406.903591415</v>
-      </c>
-      <c r="D135" t="n">
-        <v>16462.38813552</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="C135">
+        <v>15406.903591415001</v>
+      </c>
+      <c r="D135">
+        <v>16462.388135519999</v>
+      </c>
+      <c r="E135">
         <v>1055.4845441049983</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>19</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>13142.953774545002</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>13130.083804830001</v>
       </c>
-      <c r="E136" t="n">
-        <v>-12.86996971500048</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="E136">
+        <v>-12.869969715000479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>3216.9804271900002</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>3228.4967557150003</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>11.516328525000063</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>20</v>
       </c>
       <c r="B138" t="s">
         <v>30</v>
       </c>
-      <c r="C138" t="n">
-        <v>2200.62965483</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2190.90557887</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-9.724075959999936</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="C138">
+        <v>2200.6296548300002</v>
+      </c>
+      <c r="D138">
+        <v>2190.9055788700002</v>
+      </c>
+      <c r="E138">
+        <v>-9.7240759599999365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
       <c r="B139" t="s">
         <v>31</v>
       </c>
-      <c r="C139" t="n">
-        <v>167930.360989445</v>
-      </c>
-      <c r="D139" t="n">
+      <c r="C139">
+        <v>167930.36098944501</v>
+      </c>
+      <c r="D139">
         <v>155116.37958403002</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>-12813.98140541499</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>20</v>
       </c>
       <c r="B140" t="s">
         <v>32</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1784.0121074600002</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>1634.5941386900001</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>-149.41796877000002</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
       <c r="B141" t="s">
         <v>33</v>
       </c>
-      <c r="C141" t="n">
-        <v>81870.710730915</v>
-      </c>
-      <c r="D141" t="n">
-        <v>86060.55565125</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4189.844920335003</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="C141">
+        <v>81870.710730915001</v>
+      </c>
+      <c r="D141">
+        <v>86060.555651250004</v>
+      </c>
+      <c r="E141">
+        <v>4189.8449203350028</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
       <c r="B142" t="s">
         <v>34</v>
       </c>
-      <c r="C142" t="n">
-        <v>3098.45206605</v>
-      </c>
-      <c r="D142" t="n">
+      <c r="C142">
+        <v>3098.4520660500002</v>
+      </c>
+      <c r="D142">
         <v>3995.15805688</v>
       </c>
-      <c r="E142" t="n">
-        <v>896.7059908299998</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="E142">
+        <v>896.70599082999979</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>20</v>
       </c>
       <c r="B143" t="s">
         <v>35</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>13049.994850385001</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>13557.184040510001</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>507.1891901250001</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>20</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>23348.0915246</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>25044.274113490002</v>
       </c>
-      <c r="E144" t="n">
-        <v>1696.182588890002</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="E144">
+        <v>1696.1825888900021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>20</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>14343.600892215001</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>14469.183606895002</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>125.58271468000021</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>21</v>
       </c>
       <c r="B146" t="s">
         <v>29</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>3092.59864281</v>
       </c>
-      <c r="D146" t="n">
-        <v>3162.60546615</v>
-      </c>
-      <c r="E146" t="n">
+      <c r="D146">
+        <v>3162.6054661500002</v>
+      </c>
+      <c r="E146">
         <v>70.00682334000021</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>21</v>
       </c>
       <c r="B147" t="s">
         <v>30</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>3413.34636912</v>
       </c>
-      <c r="D147" t="n">
-        <v>3366.68652039</v>
-      </c>
-      <c r="E147" t="n">
+      <c r="D147">
+        <v>3366.6865203900002</v>
+      </c>
+      <c r="E147">
         <v>-46.659848729999794</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>21</v>
       </c>
       <c r="B148" t="s">
         <v>31</v>
       </c>
-      <c r="C148" t="n">
-        <v>80150.59972935001</v>
-      </c>
-      <c r="D148" t="n">
-        <v>80103.644590145</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-46.95513920500525</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="C148">
+        <v>80150.599729350011</v>
+      </c>
+      <c r="D148">
+        <v>80103.644590145006</v>
+      </c>
+      <c r="E148">
+        <v>-46.955139205005253</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>21</v>
       </c>
       <c r="B149" t="s">
         <v>32</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>430.81916593</v>
       </c>
-      <c r="D149" t="n">
-        <v>494.891268485</v>
-      </c>
-      <c r="E149" t="n">
-        <v>64.07210255500001</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="D149">
+        <v>494.89126848500001</v>
+      </c>
+      <c r="E149">
+        <v>64.072102555000015</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>21</v>
       </c>
       <c r="B150" t="s">
         <v>33</v>
       </c>
-      <c r="C150" t="n">
-        <v>143603.9241828</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="C150">
+        <v>143603.92418279999</v>
+      </c>
+      <c r="D150">
         <v>142388.52637926</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>-1215.3978035399923</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" t="s">
         <v>34</v>
       </c>
-      <c r="C151" t="n">
-        <v>557.475057625</v>
-      </c>
-      <c r="D151" t="n">
-        <v>784.23318482</v>
-      </c>
-      <c r="E151" t="n">
+      <c r="C151">
+        <v>557.47505762499998</v>
+      </c>
+      <c r="D151">
+        <v>784.23318482000002</v>
+      </c>
+      <c r="E151">
         <v>226.75812719500004</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>21</v>
       </c>
       <c r="B152" t="s">
         <v>35</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1556.0392120850001</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>1717.99405303</v>
       </c>
-      <c r="E152" t="n">
-        <v>161.9548409449999</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="E152">
+        <v>161.95484094499989</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>21</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
       </c>
-      <c r="C153" t="n">
-        <v>2681.59235578</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="C153">
+        <v>2681.5923557800002</v>
+      </c>
+      <c r="D153">
         <v>3000.016059565</v>
       </c>
-      <c r="E153" t="n">
-        <v>318.4237037849998</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="E153">
+        <v>318.42370378499982</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
       </c>
-      <c r="C154" t="n">
-        <v>2973.379128985</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="C154">
+        <v>2973.3791289850001</v>
+      </c>
+      <c r="D154">
         <v>3021.1376065450004</v>
       </c>
-      <c r="E154" t="n">
-        <v>47.7584775600003</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="E154">
+        <v>47.758477560000301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
       <c r="B155" t="s">
         <v>29</v>
       </c>
-      <c r="C155" t="n">
-        <v>3659.537327725</v>
-      </c>
-      <c r="D155" t="n">
-        <v>3676.790198825</v>
-      </c>
-      <c r="E155" t="n">
+      <c r="C155">
+        <v>3659.5373277250001</v>
+      </c>
+      <c r="D155">
+        <v>3676.7901988250001</v>
+      </c>
+      <c r="E155">
         <v>17.252871099999993</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
       <c r="B156" t="s">
         <v>30</v>
       </c>
-      <c r="C156" t="n">
-        <v>2908.639101615</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2886.43202237</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-22.20707924499993</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="C156">
+        <v>2908.6391016150001</v>
+      </c>
+      <c r="D156">
+        <v>2886.4320223700001</v>
+      </c>
+      <c r="E156">
+        <v>-22.207079244999932</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>22</v>
       </c>
       <c r="B157" t="s">
         <v>31</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>134591.72832230502</v>
       </c>
-      <c r="D157" t="n">
-        <v>132498.825080645</v>
-      </c>
-      <c r="E157" t="n">
+      <c r="D157">
+        <v>132498.82508064501</v>
+      </c>
+      <c r="E157">
         <v>-2092.9032416600094</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>22</v>
       </c>
       <c r="B158" t="s">
         <v>32</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>223.21834807000002</v>
       </c>
-      <c r="D158" t="n">
-        <v>151.70121897</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-71.5171291</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="D158">
+        <v>151.70121897000001</v>
+      </c>
+      <c r="E158">
+        <v>-71.517129100000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>22</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
       </c>
-      <c r="C159" t="n">
-        <v>75467.340487115</v>
-      </c>
-      <c r="D159" t="n">
-        <v>74972.27921039</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-495.0612767249986</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="C159">
+        <v>75467.340487114998</v>
+      </c>
+      <c r="D159">
+        <v>74972.279210389999</v>
+      </c>
+      <c r="E159">
+        <v>-495.06127672499861</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>22</v>
       </c>
       <c r="B160" t="s">
         <v>34</v>
       </c>
-      <c r="C160" t="n">
-        <v>953.9819645700001</v>
-      </c>
-      <c r="D160" t="n">
+      <c r="C160">
+        <v>953.98196457000006</v>
+      </c>
+      <c r="D160">
         <v>1137.557010385</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>183.57504581499995</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
       <c r="B161" t="s">
         <v>35</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>2721.94262544</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>2860.8734580100004</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>138.93083257000035</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>22</v>
       </c>
       <c r="B162" t="s">
         <v>36</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>6467.8873824600005</v>
       </c>
-      <c r="D162" t="n">
-        <v>6829.315757815</v>
-      </c>
-      <c r="E162" t="n">
+      <c r="D162">
+        <v>6829.3157578150003</v>
+      </c>
+      <c r="E162">
         <v>361.42837535499984</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>22</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
       </c>
-      <c r="C163" t="n">
-        <v>4305.621025985</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4323.739753005</v>
-      </c>
-      <c r="E163" t="n">
+      <c r="C163">
+        <v>4305.6210259850004</v>
+      </c>
+      <c r="D163">
+        <v>4323.7397530050002</v>
+      </c>
+      <c r="E163">
         <v>18.118727019999824</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>23</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
       </c>
-      <c r="C164" t="n">
-        <v>9084.07252737</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9097.57730983</v>
-      </c>
-      <c r="E164" t="n">
-        <v>13.50478245999875</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="C164">
+        <v>9084.0725273700009</v>
+      </c>
+      <c r="D164">
+        <v>9097.5773098299996</v>
+      </c>
+      <c r="E164">
+        <v>13.504782459998751</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>23</v>
       </c>
       <c r="B165" t="s">
         <v>30</v>
       </c>
-      <c r="C165" t="n">
-        <v>47594.82189534</v>
-      </c>
-      <c r="D165" t="n">
-        <v>47583.762711065</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="C165">
+        <v>47594.821895339999</v>
+      </c>
+      <c r="D165">
+        <v>47583.762711064999</v>
+      </c>
+      <c r="E165">
         <v>-11.059184275000007</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>23</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
       </c>
-      <c r="C166" t="n">
-        <v>89801.114260585</v>
-      </c>
-      <c r="D166" t="n">
-        <v>92913.41582057001</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3112.301559985004</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="C166">
+        <v>89801.114260585004</v>
+      </c>
+      <c r="D166">
+        <v>92913.415820570008</v>
+      </c>
+      <c r="E166">
+        <v>3112.3015599850041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>23</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>246.96785672500002</v>
       </c>
-      <c r="D167" t="n">
-        <v>75.96551331</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-171.002343415</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="D167">
+        <v>75.965513310000006</v>
+      </c>
+      <c r="E167">
+        <v>-171.00234341500001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>23</v>
       </c>
       <c r="B168" t="s">
         <v>33</v>
       </c>
-      <c r="C168" t="n">
-        <v>57317.39298589</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="C168">
+        <v>57317.392985890001</v>
+      </c>
+      <c r="D168">
         <v>53692.665339515006</v>
       </c>
-      <c r="E168" t="n">
-        <v>-3624.727646374995</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="E168">
+        <v>-3624.7276463749949</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>23</v>
       </c>
       <c r="B169" t="s">
         <v>34</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>374.05247559500003</v>
       </c>
-      <c r="D169" t="n">
-        <v>526.41618307</v>
-      </c>
-      <c r="E169" t="n">
+      <c r="D169">
+        <v>526.41618306999999</v>
+      </c>
+      <c r="E169">
         <v>152.36370747499996</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>23</v>
       </c>
       <c r="B170" t="s">
         <v>35</v>
       </c>
-      <c r="C170" t="n">
-        <v>937.565543895</v>
-      </c>
-      <c r="D170" t="n">
+      <c r="C170">
+        <v>937.56554389500002</v>
+      </c>
+      <c r="D170">
         <v>1004.450936875</v>
       </c>
-      <c r="E170" t="n">
-        <v>66.88539298</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="E170">
+        <v>66.885392980000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>23</v>
       </c>
       <c r="B171" t="s">
         <v>36</v>
       </c>
-      <c r="C171" t="n">
-        <v>2107.70137169</v>
-      </c>
-      <c r="D171" t="n">
-        <v>2219.5415889</v>
-      </c>
-      <c r="E171" t="n">
+      <c r="C171">
+        <v>2107.7013716900001</v>
+      </c>
+      <c r="D171">
+        <v>2219.5415889000001</v>
+      </c>
+      <c r="E171">
         <v>111.84021720999999</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>23</v>
       </c>
       <c r="B172" t="s">
         <v>37</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1062.1215373</v>
       </c>
-      <c r="D172" t="n">
-        <v>1059.271181125</v>
-      </c>
-      <c r="E172" t="n">
+      <c r="D172">
+        <v>1059.2711811250001</v>
+      </c>
+      <c r="E172">
         <v>-2.850356174999888</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>24</v>
       </c>
       <c r="B173" t="s">
         <v>29</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>3622.42536909</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>3641.50484035</v>
       </c>
-      <c r="E173" t="n">
-        <v>19.07947125999999</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="E173">
+        <v>19.079471259999991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>24</v>
       </c>
       <c r="B174" t="s">
         <v>30</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>3759.2992996400003</v>
       </c>
-      <c r="D174" t="n">
-        <v>3757.22361764</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="D174">
+        <v>3757.2236176400002</v>
+      </c>
+      <c r="E174">
         <v>-2.0756820000001426</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>24</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
       </c>
-      <c r="C175" t="n">
-        <v>60553.695294345</v>
-      </c>
-      <c r="D175" t="n">
+      <c r="C175">
+        <v>60553.695294345001</v>
+      </c>
+      <c r="D175">
         <v>59947.416505010005</v>
       </c>
-      <c r="E175" t="n">
-        <v>-606.278789334996</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="E175">
+        <v>-606.27878933499596</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>24</v>
       </c>
       <c r="B176" t="s">
         <v>32</v>
       </c>
-      <c r="C176" t="n">
-        <v>136.738269905</v>
-      </c>
-      <c r="D176" t="n">
-        <v>92.32435852</v>
-      </c>
-      <c r="E176" t="n">
+      <c r="C176">
+        <v>136.73826990500001</v>
+      </c>
+      <c r="D176">
+        <v>92.324358520000004</v>
+      </c>
+      <c r="E176">
         <v>-44.413911385000006</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>24</v>
       </c>
       <c r="B177" t="s">
         <v>33</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>98147.81088876001</v>
       </c>
-      <c r="D177" t="n">
-        <v>97595.33130581501</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-552.4795829450013</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="D177">
+        <v>97595.331305815009</v>
+      </c>
+      <c r="E177">
+        <v>-552.47958294500131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>24</v>
       </c>
       <c r="B178" t="s">
         <v>34</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>292.356597335</v>
       </c>
-      <c r="D178" t="n">
-        <v>392.25694805</v>
-      </c>
-      <c r="E178" t="n">
-        <v>99.900350715</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="D178">
+        <v>392.25694805000001</v>
+      </c>
+      <c r="E178">
+        <v>99.900350715000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>24</v>
       </c>
       <c r="B179" t="s">
         <v>35</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1751.9336776750001</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>1799.8218853600001</v>
       </c>
-      <c r="E179" t="n">
-        <v>47.888207685</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="E179">
+        <v>47.888207684999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>24</v>
       </c>
       <c r="B180" t="s">
         <v>36</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>2514.21281877</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>2689.8283654300003</v>
       </c>
-      <c r="E180" t="n">
-        <v>175.6155466600003</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="E180">
+        <v>175.61554666000029</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>24</v>
       </c>
       <c r="B181" t="s">
         <v>37</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1838.484180765</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>1840.32239486</v>
       </c>
-      <c r="E181" t="n">
-        <v>1.838214095000012</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="E181">
+        <v>1.8382140950000121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>25</v>
       </c>
       <c r="B182" t="s">
         <v>29</v>
       </c>
-      <c r="C182" t="n">
-        <v>7981.497924730001</v>
-      </c>
-      <c r="D182" t="n">
-        <v>7998.604262565001</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="C182">
+        <v>7981.4979247300007</v>
+      </c>
+      <c r="D182">
+        <v>7998.6042625650007</v>
+      </c>
+      <c r="E182">
         <v>17.106337834999977</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>25</v>
       </c>
       <c r="B183" t="s">
         <v>30</v>
       </c>
-      <c r="C183" t="n">
-        <v>0.0027181550000000003</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0027181550000000003</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="184">
+      <c r="C183">
+        <v>2.7181550000000003E-3</v>
+      </c>
+      <c r="D183">
+        <v>2.7181550000000003E-3</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>25</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
       </c>
-      <c r="C184" t="n">
-        <v>142864.96310503</v>
-      </c>
-      <c r="D184" t="n">
-        <v>141441.03042673</v>
-      </c>
-      <c r="E184" t="n">
+      <c r="C184">
+        <v>142864.96310503001</v>
+      </c>
+      <c r="D184">
+        <v>141441.03042672999</v>
+      </c>
+      <c r="E184">
         <v>-1423.9326783000142</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185" t="s">
         <v>32</v>
       </c>
-      <c r="C185" t="n">
-        <v>286.548147205</v>
-      </c>
-      <c r="D185" t="n">
-        <v>516.8482774700001</v>
-      </c>
-      <c r="E185" t="n">
+      <c r="C185">
+        <v>286.54814720500002</v>
+      </c>
+      <c r="D185">
+        <v>516.84827747000008</v>
+      </c>
+      <c r="E185">
         <v>230.30013026500006</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>25</v>
       </c>
       <c r="B186" t="s">
         <v>33</v>
       </c>
-      <c r="C186" t="n">
-        <v>131669.622739505</v>
-      </c>
-      <c r="D186" t="n">
-        <v>131081.207911935</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-588.414827569999</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="C186">
+        <v>131669.62273950499</v>
+      </c>
+      <c r="D186">
+        <v>131081.20791193499</v>
+      </c>
+      <c r="E186">
+        <v>-588.41482756999903</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>25</v>
       </c>
       <c r="B187" t="s">
         <v>34</v>
       </c>
-      <c r="C187" t="n">
-        <v>1454.59989143</v>
-      </c>
-      <c r="D187" t="n">
+      <c r="C187">
+        <v>1454.5998914300001</v>
+      </c>
+      <c r="D187">
         <v>1781.126662375</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>326.52677094499995</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>25</v>
       </c>
       <c r="B188" t="s">
         <v>35</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>3841.9008177250003</v>
       </c>
-      <c r="D188" t="n">
-        <v>4005.735386405</v>
-      </c>
-      <c r="E188" t="n">
+      <c r="D188">
+        <v>4005.7353864050001</v>
+      </c>
+      <c r="E188">
         <v>163.83456867999985</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>25</v>
       </c>
       <c r="B189" t="s">
         <v>36</v>
       </c>
-      <c r="C189" t="n">
-        <v>6899.273407260001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>7160.101630540001</v>
-      </c>
-      <c r="E189" t="n">
+      <c r="C189">
+        <v>6899.2734072600006</v>
+      </c>
+      <c r="D189">
+        <v>7160.1016305400008</v>
+      </c>
+      <c r="E189">
         <v>260.8282232800002</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>25</v>
       </c>
       <c r="B190" t="s">
         <v>37</v>
       </c>
-      <c r="C190" t="n">
-        <v>4100.830780395</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4134.34390181</v>
-      </c>
-      <c r="E190" t="n">
-        <v>33.51312141499966</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="C190">
+        <v>4100.8307803950001</v>
+      </c>
+      <c r="D190">
+        <v>4134.3439018099998</v>
+      </c>
+      <c r="E190">
+        <v>33.513121414999659</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>26</v>
       </c>
       <c r="B191" t="s">
         <v>29</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>3596.2623859</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>3639.23592224</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>42.97353634000001</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>26</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>11967.186670905001</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>11965.526619515</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>-1.660051390001172</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>26</v>
       </c>
       <c r="B193" t="s">
         <v>31</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>119018.27497247001</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>119305.93089139</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>287.65591891999065</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>26</v>
       </c>
       <c r="B194" t="s">
         <v>32</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>305.94366576000004</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>149.41055562</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>-156.53311014000005</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>26</v>
       </c>
       <c r="B195" t="s">
         <v>33</v>
       </c>
-      <c r="C195" t="n">
-        <v>93361.761402835</v>
-      </c>
-      <c r="D195" t="n">
-        <v>91517.28789108</v>
-      </c>
-      <c r="E195" t="n">
+      <c r="C195">
+        <v>93361.761402835007</v>
+      </c>
+      <c r="D195">
+        <v>91517.287891080006</v>
+      </c>
+      <c r="E195">
         <v>-1844.4735117550008</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>26</v>
       </c>
       <c r="B196" t="s">
         <v>34</v>
       </c>
-      <c r="C196" t="n">
-        <v>516.55768199</v>
-      </c>
-      <c r="D196" t="n">
-        <v>649.386750795</v>
-      </c>
-      <c r="E196" t="n">
+      <c r="C196">
+        <v>516.55768198999999</v>
+      </c>
+      <c r="D196">
+        <v>649.38675079500001</v>
+      </c>
+      <c r="E196">
         <v>132.82906880500002</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>26</v>
       </c>
       <c r="B197" t="s">
         <v>35</v>
       </c>
-      <c r="C197" t="n">
-        <v>2643.04249315</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2789.12800389</v>
-      </c>
-      <c r="E197" t="n">
-        <v>146.0855107399998</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="C197">
+        <v>2643.0424931500002</v>
+      </c>
+      <c r="D197">
+        <v>2789.1280038899999</v>
+      </c>
+      <c r="E197">
+        <v>146.08551073999979</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>26</v>
       </c>
       <c r="B198" t="s">
         <v>36</v>
       </c>
-      <c r="C198" t="n">
-        <v>5895.333483525001</v>
-      </c>
-      <c r="D198" t="n">
+      <c r="C198">
+        <v>5895.3334835250007</v>
+      </c>
+      <c r="D198">
         <v>6201.57046292</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>306.23697939499925</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>26</v>
       </c>
       <c r="B199" t="s">
         <v>37</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>4019.6125561000003</v>
       </c>
-      <c r="D199" t="n">
-        <v>4015.177268455</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-4.435287645000244</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="D199">
+        <v>4015.1772684550001</v>
+      </c>
+      <c r="E199">
+        <v>-4.4352876450002441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>27</v>
       </c>
       <c r="B200" t="s">
         <v>29</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>147184.06346166</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>147311.126088185</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>127.062626525003</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>30</v>
       </c>
-      <c r="C201" t="n">
-        <v>14347.93239576</v>
-      </c>
-      <c r="D201" t="n">
+      <c r="C201">
+        <v>14347.932395760001</v>
+      </c>
+      <c r="D201">
         <v>14311.20073172</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>-36.731664040000396</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>27</v>
       </c>
       <c r="B202" t="s">
         <v>31</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>163334.27890858002</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>164900.73903272502</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>1566.460124145</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>27</v>
       </c>
       <c r="B203" t="s">
         <v>32</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>471.10098750500003</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>399.42101621</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>-71.67997129500003</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>27</v>
       </c>
       <c r="B204" t="s">
         <v>33</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>105817.80973312001</v>
       </c>
-      <c r="D204" t="n">
-        <v>102474.655268985</v>
-      </c>
-      <c r="E204" t="n">
+      <c r="D204">
+        <v>102474.65526898501</v>
+      </c>
+      <c r="E204">
         <v>-3343.1544641350047</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>27</v>
       </c>
       <c r="B205" t="s">
         <v>34</v>
       </c>
-      <c r="C205" t="n">
-        <v>2850.328252135</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3336.649177905</v>
-      </c>
-      <c r="E205" t="n">
+      <c r="C205">
+        <v>2850.3282521350002</v>
+      </c>
+      <c r="D205">
+        <v>3336.6491779050002</v>
+      </c>
+      <c r="E205">
         <v>486.32092577000003</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>27</v>
       </c>
       <c r="B206" t="s">
         <v>35</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>2181.580577485</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>2293.2525161900003</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>111.67193870500023</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>27</v>
       </c>
       <c r="B207" t="s">
         <v>36</v>
       </c>
-      <c r="C207" t="n">
-        <v>4944.39264019</v>
-      </c>
-      <c r="D207" t="n">
+      <c r="C207">
+        <v>4944.3926401899998</v>
+      </c>
+      <c r="D207">
         <v>5242.54261425</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>298.1499740600002</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>27</v>
       </c>
       <c r="B208" t="s">
         <v>37</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>2447.385989675</v>
       </c>
-      <c r="D208" t="n">
-        <v>2455.58864015</v>
-      </c>
-      <c r="E208" t="n">
+      <c r="D208">
+        <v>2455.5886401500002</v>
+      </c>
+      <c r="E208">
         <v>8.202650475000155</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
         <v>29</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>337.08754443500004</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>323.5938817</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>-13.493662735000044</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>28</v>
       </c>
       <c r="B210" t="s">
         <v>30</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>18.117738600000003</v>
       </c>
-      <c r="D210" t="n">
-        <v>18.113537815</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-0.004200785000001872</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="D210">
+        <v>18.113537815000001</v>
+      </c>
+      <c r="E210">
+        <v>-4.200785000001872E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>28</v>
       </c>
       <c r="B211" t="s">
         <v>31</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>14747.789552295</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>11786.541549075</v>
       </c>
-      <c r="E211" t="n">
-        <v>-2961.24800322</v>
-      </c>
-    </row>
-    <row r="212">
+      <c r="E211">
+        <v>-2961.2480032200001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" t="s">
         <v>32</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>19.141741720000002</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>16.805363945</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>-2.3363777750000025</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>28</v>
       </c>
       <c r="B213" t="s">
         <v>33</v>
       </c>
-      <c r="C213" t="n">
-        <v>11096.6997561</v>
-      </c>
-      <c r="D213" t="n">
-        <v>10921.045908165</v>
-      </c>
-      <c r="E213" t="n">
+      <c r="C213">
+        <v>11096.699756100001</v>
+      </c>
+      <c r="D213">
+        <v>10921.045908165001</v>
+      </c>
+      <c r="E213">
         <v>-175.65384793500016</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>28</v>
       </c>
       <c r="B214" t="s">
         <v>34</v>
       </c>
-      <c r="C214" t="n">
-        <v>360.40807881</v>
-      </c>
-      <c r="D214" t="n">
-        <v>366.47203551</v>
-      </c>
-      <c r="E214" t="n">
-        <v>6.063956700000006</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="C214">
+        <v>360.40807881000001</v>
+      </c>
+      <c r="D214">
+        <v>366.47203551000001</v>
+      </c>
+      <c r="E214">
+        <v>6.0639567000000056</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>28</v>
       </c>
       <c r="B215" t="s">
         <v>35</v>
       </c>
-      <c r="C215" t="n">
-        <v>7672.442465705</v>
-      </c>
-      <c r="D215" t="n">
-        <v>7728.497740745001</v>
-      </c>
-      <c r="E215" t="n">
-        <v>56.0552750400002</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="C215">
+        <v>7672.4424657050004</v>
+      </c>
+      <c r="D215">
+        <v>7728.4977407450006</v>
+      </c>
+      <c r="E215">
+        <v>56.055275040000197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>28</v>
       </c>
       <c r="B216" t="s">
         <v>36</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>11064.347781080001</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>11140.317248070001</v>
       </c>
-      <c r="E216" t="n">
-        <v>75.96946699</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="E216">
+        <v>75.969466990000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>28</v>
       </c>
       <c r="B217" t="s">
         <v>37</v>
       </c>
-      <c r="C217" t="n">
-        <v>6701.49155368</v>
-      </c>
-      <c r="D217" t="n">
-        <v>6644.749573845001</v>
-      </c>
-      <c r="E217" t="n">
+      <c r="C217">
+        <v>6701.4915536799999</v>
+      </c>
+      <c r="D217">
+        <v>6644.7495738450007</v>
+      </c>
+      <c r="E217">
         <v>-56.741979834999256</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>8546.756542750001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9912.015374325</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>8546.7565427500012</v>
+      </c>
+      <c r="D2">
+        <v>9912.0153743249994</v>
+      </c>
+      <c r="E2">
         <v>1365.2588315749995</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="n">
-        <v>75103.959735155</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80319.662298515</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5215.702563360001</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>75103.959735155004</v>
+      </c>
+      <c r="D3">
+        <v>80319.662298515002</v>
+      </c>
+      <c r="E3">
+        <v>5215.7025633600006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="n">
-        <v>536222.69029274</v>
-      </c>
-      <c r="D4" t="n">
-        <v>543180.68227273</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6957.991979989987</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>536222.69029274001</v>
+      </c>
+      <c r="D4">
+        <v>543180.68227273005</v>
+      </c>
+      <c r="E4">
+        <v>6957.9919799899872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>53796.310566505</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54111.474214025</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>53796.310566505002</v>
+      </c>
+      <c r="D5">
+        <v>54111.474214025002</v>
+      </c>
+      <c r="E5">
         <v>315.16364752000027</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3811.3650644550003</v>
       </c>
-      <c r="D6" t="n">
-        <v>3732.936408505</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>3732.9364085050001</v>
+      </c>
+      <c r="E6">
         <v>-78.42865594999995</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="n">
-        <v>47751.558372895</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49653.949095865</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7">
+        <v>47751.558372895001</v>
+      </c>
+      <c r="D7">
+        <v>49653.949095864999</v>
+      </c>
+      <c r="E7">
         <v>1902.3907229699998</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>741746.436187115</v>
-      </c>
-      <c r="D8" t="n">
-        <v>699536.11452774</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-42210.321659375</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>741746.43618711503</v>
+      </c>
+      <c r="D8">
+        <v>699536.11452774005</v>
+      </c>
+      <c r="E8">
+        <v>-42210.321659374997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>18770.844281045</v>
       </c>
-      <c r="D9" t="n">
-        <v>18794.973095875</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>18794.973095875001</v>
+      </c>
+      <c r="E9">
         <v>24.128814830000238</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="n">
-        <v>3684.26191271</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>3684.2619127100002</v>
+      </c>
+      <c r="D10">
         <v>3672.1374587800005</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-12.124453929999849</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3740.93840972</v>
       </c>
-      <c r="D11" t="n">
-        <v>4512.452111770001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>771.51370205</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>4512.4521117700006</v>
+      </c>
+      <c r="E11">
+        <v>771.51370205000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>12947.427495405002</v>
       </c>
-      <c r="D12" t="n">
-        <v>13663.65466607</v>
-      </c>
-      <c r="E12" t="n">
-        <v>716.2271706649994</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>13663.654666070001</v>
+      </c>
+      <c r="E12">
+        <v>716.22717066499945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>256496.96412184503</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>247684.60849958</v>
       </c>
-      <c r="E13" t="n">
-        <v>-8812.355622265</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>-8812.3556222650004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="n">
-        <v>7529.120083075</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7530.03708973</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9170066550000229</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>7529.1200830750004</v>
+      </c>
+      <c r="D14">
+        <v>7530.0370897299999</v>
+      </c>
+      <c r="E14">
+        <v>0.91700665500002287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1024.0125099900001</v>
       </c>
-      <c r="D15" t="n">
-        <v>624.79708514</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-399.2154248500001</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>624.79708514000004</v>
+      </c>
+      <c r="E15">
+        <v>-399.21542485000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="n">
-        <v>5762.18861453</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6086.831456955</v>
-      </c>
-      <c r="E16" t="n">
-        <v>324.642842425</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>5762.1886145300005</v>
+      </c>
+      <c r="D16">
+        <v>6086.8314569550002</v>
+      </c>
+      <c r="E16">
+        <v>324.64284242500003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="n">
-        <v>372153.668141635</v>
-      </c>
-      <c r="D17" t="n">
-        <v>377120.085744685</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4966.417603049995</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>372153.66814163502</v>
+      </c>
+      <c r="D17">
+        <v>377120.08574468503</v>
+      </c>
+      <c r="E17">
+        <v>4966.4176030499948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>159864.39837493</v>
       </c>
-      <c r="D18" t="n">
-        <v>160047.939320255</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>160047.93932025501</v>
+      </c>
+      <c r="E18">
         <v>183.54094532500176</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
-        <v>73909.940962005</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73860.4900623</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="C19">
+        <v>73909.940962004999</v>
+      </c>
+      <c r="D19">
+        <v>73860.490062299999</v>
+      </c>
+      <c r="E19">
         <v>-49.450899705001575</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>4032.58210913</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4746.37455423</v>
-      </c>
-      <c r="E20" t="n">
-        <v>713.7924451000001</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>4032.5821091299999</v>
+      </c>
+      <c r="D20">
+        <v>4746.3745542300003</v>
+      </c>
+      <c r="E20">
+        <v>713.79244510000012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="n">
-        <v>46090.58503414001</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>46090.585034140007</v>
+      </c>
+      <c r="D21">
         <v>48070.338649195</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1979.7536150549968</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="n">
-        <v>451189.934035605</v>
-      </c>
-      <c r="D22" t="n">
-        <v>447810.84309132</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="C22">
+        <v>451189.93403560499</v>
+      </c>
+      <c r="D22">
+        <v>447810.84309132001</v>
+      </c>
+      <c r="E22">
         <v>-3379.090944284997</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>33545.156354305</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>33511.9204847</v>
       </c>
-      <c r="E23" t="n">
-        <v>-33.2358696049987</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23">
+        <v>-33.235869604998697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="n">
-        <v>676.7780929400001</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>676.77809294000008</v>
+      </c>
+      <c r="D24">
         <v>890.9185446250001</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>214.14045168500002</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="n">
-        <v>30977.454198815</v>
-      </c>
-      <c r="D25" t="n">
-        <v>31922.64095512</v>
-      </c>
-      <c r="E25" t="n">
-        <v>945.186756305</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>30977.454198815001</v>
+      </c>
+      <c r="D25">
+        <v>31922.640955120001</v>
+      </c>
+      <c r="E25">
+        <v>945.18675630500002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>392790.47418523504</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>381787.289833755</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-11003.184351479988</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>13466.20245056</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>13448.65255925</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-17.549891309999794</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2694.0921622050005</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2692.8645445650004</v>
       </c>
-      <c r="E28" t="n">
-        <v>-1.227617639999984</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28">
+        <v>-1.2276176399999841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2633.0075591000004</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2914.5372508600003</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>281.52969175999993</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>16703.436839075002</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>17803.68050025</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1100.2436611750009</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="n">
-        <v>180825.10569885</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>180825.10569885001</v>
+      </c>
+      <c r="D31">
         <v>180458.248426645</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-366.85727220499393</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>11181.307766785001</v>
       </c>
-      <c r="D32" t="n">
-        <v>11310.804130455</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>11310.804130455001</v>
+      </c>
+      <c r="E32">
         <v>129.49636366999948</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1774.5894996000002</v>
       </c>
-      <c r="D33" t="n">
-        <v>1647.19896474</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>1647.1989647400001</v>
+      </c>
+      <c r="E33">
         <v>-127.39053486000009</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="n">
-        <v>7708.821263805</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8337.780091355002</v>
-      </c>
-      <c r="E34" t="n">
-        <v>628.9588275500007</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34">
+        <v>7708.8212638049999</v>
+      </c>
+      <c r="D34">
+        <v>8337.7800913550018</v>
+      </c>
+      <c r="E34">
+        <v>628.95882755000071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="n">
-        <v>424971.30700039</v>
-      </c>
-      <c r="D35" t="n">
-        <v>417902.492628685</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-7068.814371705012</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>424971.30700039002</v>
+      </c>
+      <c r="D35">
+        <v>417902.49262868502</v>
+      </c>
+      <c r="E35">
+        <v>-7068.8143717050116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>7802.172096495</v>
       </c>
-      <c r="D36" t="n">
-        <v>7875.42711506</v>
-      </c>
-      <c r="E36" t="n">
-        <v>73.25501856499955</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36">
+        <v>7875.4271150599998</v>
+      </c>
+      <c r="E36">
+        <v>73.255018564999546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10100.122078735001</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>10036.899276065</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-63.222802669999965</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="n">
-        <v>3480.589817245</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4521.414363015</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="C38">
+        <v>3480.5898172450002</v>
+      </c>
+      <c r="D38">
+        <v>4521.4143630150002</v>
+      </c>
+      <c r="E38">
         <v>1040.8245457700002</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>17873.695972265003</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>19311.235981600003</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1437.5400093349992</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>698507.617309105</v>
       </c>
-      <c r="D40" t="n">
-        <v>694920.93296011</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>694920.93296011002</v>
+      </c>
+      <c r="E40">
         <v>-3586.6843489949824</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>14871.860725690001</v>
       </c>
-      <c r="D41" t="n">
-        <v>14935.229073205</v>
-      </c>
-      <c r="E41" t="n">
-        <v>63.36834751500032</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>14935.229073205001</v>
+      </c>
+      <c r="E41">
+        <v>63.368347515000323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2848.2807401050004</v>
       </c>
-      <c r="D42" t="n">
-        <v>2378.874645795</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>2378.8746457950001</v>
+      </c>
+      <c r="E42">
         <v>-469.40609431000007</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="n">
-        <v>9699.475421725001</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>9699.4754217250011</v>
+      </c>
+      <c r="D43">
         <v>10364.425339630001</v>
       </c>
-      <c r="E43" t="n">
-        <v>664.9499179050001</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43">
+        <v>664.94991790500012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>31</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>502936.43647245003</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>499642.05262795504</v>
       </c>
-      <c r="E44" t="n">
-        <v>-3294.383844495009</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44">
+        <v>-3294.3838444950088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45" t="n">
-        <v>44782.37854628</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>44782.378546280001</v>
+      </c>
+      <c r="D45">
         <v>45159.399000030004</v>
       </c>
-      <c r="E45" t="n">
-        <v>377.0204537500026</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45">
+        <v>377.02045375000262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C46" t="n">
-        <v>92738.949559265</v>
-      </c>
-      <c r="D46" t="n">
-        <v>92650.84451862001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-88.10504064500674</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>92738.949559265006</v>
+      </c>
+      <c r="D46">
+        <v>92650.844518620012</v>
+      </c>
+      <c r="E46">
+        <v>-88.105040645006738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="n">
-        <v>4795.18817014</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>4795.1881701399998</v>
+      </c>
+      <c r="D47">
         <v>4891.74889678</v>
       </c>
-      <c r="E47" t="n">
-        <v>96.56072663999998</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47">
+        <v>96.560726639999984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C48" t="n">
-        <v>12638.43826052</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>12638.438260520001</v>
+      </c>
+      <c r="D48">
         <v>12998.213256320001</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>359.77499579999994</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" t="n">
-        <v>265546.467153925</v>
-      </c>
-      <c r="D49" t="n">
-        <v>267714.587674955</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="C49">
+        <v>265546.46715392498</v>
+      </c>
+      <c r="D49">
+        <v>267714.58767495502</v>
+      </c>
+      <c r="E49">
         <v>2168.1205210300104</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" t="n">
-        <v>10013.69735209</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10046.161759885</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="C50">
+        <v>10013.697352089999</v>
+      </c>
+      <c r="D50">
+        <v>10046.161759885001</v>
+      </c>
+      <c r="E50">
         <v>32.46440779500017</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
-      <c r="C51" t="n">
-        <v>4114.47517718</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51">
+        <v>4114.4751771800002</v>
+      </c>
+      <c r="D51">
         <v>4083.4637467850002</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-31.011430395000218</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="n">
-        <v>6897.223671285001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7118.400437845</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="C52">
+        <v>6897.2236712850008</v>
+      </c>
+      <c r="D52">
+        <v>7118.4004378449999</v>
+      </c>
+      <c r="E52">
         <v>221.17676655999958</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" t="n">
-        <v>672654.5581522051</v>
-      </c>
-      <c r="D53" t="n">
-        <v>666158.557139685</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-6496.001012519962</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>672654.55815220508</v>
+      </c>
+      <c r="D53">
+        <v>666158.55713968503</v>
+      </c>
+      <c r="E53">
+        <v>-6496.0010125199624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="n">
-        <v>17264.60661066</v>
-      </c>
-      <c r="D54" t="n">
-        <v>17266.6200222</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="C54">
+        <v>17264.606610660001</v>
+      </c>
+      <c r="D54">
+        <v>17266.620022200001</v>
+      </c>
+      <c r="E54">
         <v>2.0134115399996517</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.267614715</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.267614715</v>
       </c>
-      <c r="E55" t="n">
-        <v>0.0</v>
+      <c r="E55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>